--- a/CFTSTAPI01/aws/jmeter.xlsx
+++ b/CFTSTAPI01/aws/jmeter.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\073090631\Documents\nando\projetos\CFTSTDADOS01\CFTSTAPI01\aws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD8140F-1A83-451D-9988-2DD10F52366E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4445C788-E162-48C0-943E-5BC3AD5A8508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="0" windowWidth="19180" windowHeight="10080" xr2:uid="{7E2E3577-958F-4875-992A-21B5194F6A8E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="observação" sheetId="1" r:id="rId1"/>
+    <sheet name="planejamento" sheetId="2" r:id="rId2"/>
+    <sheet name="execução" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,27 +36,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>usuarios</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>segundos</t>
   </si>
   <si>
-    <t>usuarios/segundo</t>
-  </si>
-  <si>
     <t>obs</t>
   </si>
   <si>
     <t>caiu</t>
+  </si>
+  <si>
+    <t>comportamento</t>
+  </si>
+  <si>
+    <t>dimensão</t>
+  </si>
+  <si>
+    <t>cenário comportamento</t>
+  </si>
+  <si>
+    <t>usuários</t>
+  </si>
+  <si>
+    <t>usuários/segundo</t>
+  </si>
+  <si>
+    <t>minutos</t>
+  </si>
+  <si>
+    <t>cpu</t>
+  </si>
+  <si>
+    <t>memória</t>
+  </si>
+  <si>
+    <t>hora</t>
+  </si>
+  <si>
+    <t>inicio</t>
+  </si>
+  <si>
+    <t>maximo</t>
+  </si>
+  <si>
+    <t>início</t>
+  </si>
+  <si>
+    <t>container</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>negritandoApi - 649be73264ad4b66bfc2c9c813a5f1c0-2280425506</t>
+  </si>
+  <si>
+    <t>arn:aws:ecs:sa-east-1:105254198021:task/cmj/649be73264ad4b66bfc2c9c813a5f1c0</t>
+  </si>
+  <si>
+    <t>arn:aws:ecs:sa-east-1:105254198021:task/cmj/dc2ced0cd17f45b3be446d15fda11f32</t>
+  </si>
+  <si>
+    <t>bom</t>
+  </si>
+  <si>
+    <t>scaling</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -64,12 +120,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -84,11 +152,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,64 +476,464 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0D2520-3328-48EA-8CBB-52737B6EFB38}">
-  <dimension ref="D2:F5"/>
+  <dimension ref="D5:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="15.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.453125" customWidth="1"/>
+    <col min="6" max="6" width="15.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D2" t="s">
+    <row r="5" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="7" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="H7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="L7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D9" s="3">
         <v>50000</v>
       </c>
-      <c r="F2">
-        <f>E2*0.7</f>
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="3" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <f>E3</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D4" t="s">
+      <c r="E9" s="3">
+        <v>5</v>
+      </c>
+      <c r="F9" s="4">
+        <f>D9/E9</f>
+        <v>10000</v>
+      </c>
+      <c r="G9" s="3">
+        <f>E9/60</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4">
-        <f>E2/E3</f>
-        <v>10000</v>
-      </c>
-      <c r="F4">
-        <f>F2/F3</f>
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="5" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D5" t="s">
+    </row>
+    <row r="10" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D10">
+        <v>1000</v>
+      </c>
+      <c r="E10">
+        <f>5*60</f>
+        <v>300</v>
+      </c>
+      <c r="F10" s="2">
+        <f>D10/E10</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="G10">
+        <f>E10/60</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D11">
+        <v>2000</v>
+      </c>
+      <c r="E11">
+        <f>5*60</f>
+        <v>300</v>
+      </c>
+      <c r="F11" s="2">
+        <f>D11/E11</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11:G12" si="0">E11/60</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D12">
+        <v>3000</v>
+      </c>
+      <c r="E12">
+        <f>5*60</f>
+        <v>300</v>
+      </c>
+      <c r="F12" s="2">
+        <f>D12/E12</f>
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D13">
+        <v>11700</v>
+      </c>
+      <c r="E13">
+        <f>5*60</f>
+        <v>300</v>
+      </c>
+      <c r="F13" s="2">
+        <f>D13/E13</f>
+        <v>39</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13" si="1">E13/60</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D15">
+        <v>1000</v>
+      </c>
+      <c r="E15">
+        <f>5*60</f>
+        <v>300</v>
+      </c>
+      <c r="F15" s="2">
+        <f>D15/E15</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="G15">
+        <f>E15/60</f>
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I15">
+        <v>0.86</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0.7597222222222223</v>
+      </c>
+    </row>
+    <row r="16" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D16">
+        <v>2000</v>
+      </c>
+      <c r="E16">
+        <f>5*60</f>
+        <v>300</v>
+      </c>
+      <c r="F16" s="2">
+        <f>D16/E16</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:G18" si="2">E16/60</f>
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>0.34</v>
+      </c>
+      <c r="I16">
+        <v>1.28</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="M16">
+        <f>I16-I15</f>
+        <v>0.42000000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D17">
+        <v>3000</v>
+      </c>
+      <c r="E17">
+        <f>5*60</f>
+        <v>300</v>
+      </c>
+      <c r="F17" s="2">
+        <f>D17/E17</f>
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I17">
+        <v>1.71</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0.77638888888888891</v>
+      </c>
+      <c r="M17">
+        <f>I17-I16</f>
+        <v>0.42999999999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D18">
+        <v>11700</v>
+      </c>
+      <c r="E18">
+        <f>5*60</f>
+        <v>300</v>
+      </c>
+      <c r="F18" s="2">
+        <f>D18/E18</f>
+        <v>39</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I18">
+        <v>5.33</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="M18">
+        <f>I18-I17</f>
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="20" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D20">
+        <v>1000</v>
+      </c>
+      <c r="E20">
+        <f>5*60</f>
+        <v>300</v>
+      </c>
+      <c r="F20" s="2">
+        <f>D20/E20</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="G20">
+        <f>E20/60</f>
+        <v>5</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0.8222222222222223</v>
+      </c>
+    </row>
+    <row r="21" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D21">
+        <v>11700</v>
+      </c>
+      <c r="E21">
+        <f>5*60</f>
+        <v>300</v>
+      </c>
+      <c r="F21" s="2">
+        <f>D21/E21</f>
+        <v>39</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21" si="3">E21/60</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D22">
+        <v>1000</v>
+      </c>
+      <c r="E22">
+        <f>5*60</f>
+        <v>300</v>
+      </c>
+      <c r="F22" s="2">
+        <f>D22/E22</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="G22">
+        <f>E22/60</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="F23" s="2"/>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D24">
+        <v>1000</v>
+      </c>
+      <c r="E24">
+        <f>5*60</f>
+        <v>300</v>
+      </c>
+      <c r="F24" s="2">
+        <f>D24/E24</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="G24">
+        <f>E24/60</f>
+        <v>5</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0.8618055555555556</v>
+      </c>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D25">
+        <v>11700</v>
+      </c>
+      <c r="E25">
+        <f>5*60</f>
+        <v>300</v>
+      </c>
+      <c r="F25" s="2">
+        <f>D25/E25</f>
+        <v>39</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ref="G25" si="4">E25/60</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D26">
+        <v>1000</v>
+      </c>
+      <c r="E26">
+        <f>5*60</f>
+        <v>300</v>
+      </c>
+      <c r="F26" s="2">
+        <f>D26/E26</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="G26">
+        <f>E26/60</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="F27" s="2"/>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="F29">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>4</v>
+      <c r="G29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="F34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="F35" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C59C917-5BDB-41EA-A2B8-2D6562315000}">
+  <dimension ref="B2:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1468F513-6330-412F-825A-08528317B0DD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>